--- a/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
+++ b/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
@@ -1055,13 +1055,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6818BF9-8113-472F-9E5C-C472725CBD0C}">
   <dimension ref="A1:BT107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AM3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,18 +1477,18 @@
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
       <c r="AB1" s="24" t="s">
         <v>277</v>
       </c>
@@ -1568,15 +1568,15 @@
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="24" t="s">
         <v>274</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="26" t="s">
         <v>233</v>
       </c>
       <c r="AB2" s="24" t="s">
@@ -1599,7 +1599,7 @@
       <c r="AG2" s="24"/>
       <c r="AH2" s="24"/>
       <c r="AI2" s="24"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>241</v>
       </c>
       <c r="AK2" s="24" t="s">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="26" t="s">
         <v>244</v>
       </c>
       <c r="AO2" s="24" t="s">
@@ -1625,7 +1625,7 @@
       <c r="AW2" s="24"/>
       <c r="AX2" s="24"/>
       <c r="AY2" s="24"/>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="26" t="s">
         <v>253</v>
       </c>
       <c r="BA2" s="24" t="s">
@@ -1642,7 +1642,7 @@
       <c r="BH2" s="24"/>
       <c r="BI2" s="24"/>
       <c r="BJ2" s="24"/>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="26" t="s">
         <v>261</v>
       </c>
       <c r="BL2" s="24" t="s">
@@ -1657,7 +1657,7 @@
       <c r="BQ2" s="24"/>
       <c r="BR2" s="24"/>
       <c r="BS2" s="24"/>
-      <c r="BT2" s="25" t="s">
+      <c r="BT2" s="26" t="s">
         <v>265</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1704,7 +1704,7 @@
       <c r="P3" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="26"/>
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="T3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="25" t="s">
         <v>227</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1732,7 +1732,7 @@
       <c r="Z3" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="AA3" s="25"/>
+      <c r="AA3" s="26"/>
       <c r="AB3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="AI3" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="AJ3" s="25"/>
+      <c r="AJ3" s="26"/>
       <c r="AK3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="AM3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="25"/>
+      <c r="AN3" s="26"/>
       <c r="AO3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="AY3" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="AZ3" s="25"/>
+      <c r="AZ3" s="26"/>
       <c r="BA3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="BJ3" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="BK3" s="25"/>
+      <c r="BK3" s="26"/>
       <c r="BL3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="BS3" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="BT3" s="25"/>
+      <c r="BT3" s="26"/>
     </row>
     <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -1872,7 +1872,7 @@
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>58</v>
       </c>
       <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="3" t="s">
         <v>288</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="T4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="27"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>64</v>
       </c>
       <c r="Z4" s="24"/>
-      <c r="AA4" s="25"/>
+      <c r="AA4" s="26"/>
       <c r="AB4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>67</v>
       </c>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="25"/>
+      <c r="AJ4" s="26"/>
       <c r="AK4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AM4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" s="25"/>
+      <c r="AN4" s="26"/>
       <c r="AO4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>66</v>
       </c>
       <c r="AY4" s="24"/>
-      <c r="AZ4" s="25"/>
+      <c r="AZ4" s="26"/>
       <c r="BA4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>66</v>
       </c>
       <c r="BJ4" s="24"/>
-      <c r="BK4" s="25"/>
+      <c r="BK4" s="26"/>
       <c r="BL4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>77</v>
       </c>
       <c r="BS4" s="24"/>
-      <c r="BT4" s="25"/>
+      <c r="BT4" s="26"/>
     </row>
     <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -2044,7 +2044,7 @@
       <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>221</v>
       </c>
       <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="26"/>
       <c r="R5" s="3" t="s">
         <v>224</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="T5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="27"/>
+      <c r="U5" s="25"/>
       <c r="V5" s="1" t="s">
         <v>228</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>231</v>
       </c>
       <c r="Z5" s="24"/>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="26"/>
       <c r="AB5" s="1" t="s">
         <v>234</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>239</v>
       </c>
       <c r="AI5" s="24"/>
-      <c r="AJ5" s="25"/>
+      <c r="AJ5" s="26"/>
       <c r="AK5" s="1" t="s">
         <v>242</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="AM5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AN5" s="25"/>
+      <c r="AN5" s="26"/>
       <c r="AO5" s="1" t="s">
         <v>245</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>236</v>
       </c>
       <c r="AY5" s="24"/>
-      <c r="AZ5" s="25"/>
+      <c r="AZ5" s="26"/>
       <c r="BA5" s="1" t="s">
         <v>234</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>237</v>
       </c>
       <c r="BJ5" s="24"/>
-      <c r="BK5" s="25"/>
+      <c r="BK5" s="26"/>
       <c r="BL5" s="1" t="s">
         <v>262</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>262</v>
       </c>
       <c r="BS5" s="24"/>
-      <c r="BT5" s="25"/>
+      <c r="BT5" s="26"/>
     </row>
     <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2222,7 +2222,7 @@
       <c r="F6" s="1">
         <v>2020</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>2018</v>
       </c>
       <c r="P6" s="24"/>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="17">
         <v>2021</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="T6" s="3">
         <v>2018</v>
       </c>
-      <c r="U6" s="27"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="1">
         <v>2020</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>2019</v>
       </c>
       <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="AA6" s="26"/>
       <c r="AB6" s="1">
         <v>2010</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="AI6" s="24"/>
-      <c r="AJ6" s="25"/>
+      <c r="AJ6" s="26"/>
       <c r="AK6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="AM6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN6" s="25"/>
+      <c r="AN6" s="26"/>
       <c r="AO6" s="1">
         <v>2019</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>2019</v>
       </c>
       <c r="AY6" s="24"/>
-      <c r="AZ6" s="25"/>
+      <c r="AZ6" s="26"/>
       <c r="BA6" s="1">
         <v>2019</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>2019</v>
       </c>
       <c r="BJ6" s="24"/>
-      <c r="BK6" s="25"/>
+      <c r="BK6" s="26"/>
       <c r="BL6" s="1">
         <v>2020</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>2020</v>
       </c>
       <c r="BS6" s="24"/>
-      <c r="BT6" s="25"/>
+      <c r="BT6" s="26"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24401,6 +24401,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AA2:AA6"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AJ2:AJ6"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AO1:AZ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AN2:AN6"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="AZ2:AZ6"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AT3:AT6"/>
     <mergeCell ref="L3:L6"/>
     <mergeCell ref="P3:P6"/>
     <mergeCell ref="U3:U6"/>
@@ -24417,31 +24442,6 @@
     <mergeCell ref="BL2:BN2"/>
     <mergeCell ref="BF3:BF6"/>
     <mergeCell ref="BJ3:BJ6"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AO1:AZ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AN2:AN6"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="AZ2:AZ6"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AT3:AT6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AA2:AA6"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AI3:AI6"/>
-    <mergeCell ref="AJ2:AJ6"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
+++ b/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
@@ -1055,13 +1055,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6818BF9-8113-472F-9E5C-C472725CBD0C}">
   <dimension ref="A1:BT107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,18 +1477,18 @@
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
       <c r="AB1" s="24" t="s">
         <v>277</v>
       </c>
@@ -1568,15 +1568,15 @@
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="24" t="s">
         <v>274</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="25" t="s">
         <v>233</v>
       </c>
       <c r="AB2" s="24" t="s">
@@ -1599,7 +1599,7 @@
       <c r="AG2" s="24"/>
       <c r="AH2" s="24"/>
       <c r="AI2" s="24"/>
-      <c r="AJ2" s="26" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>241</v>
       </c>
       <c r="AK2" s="24" t="s">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
-      <c r="AN2" s="26" t="s">
+      <c r="AN2" s="25" t="s">
         <v>244</v>
       </c>
       <c r="AO2" s="24" t="s">
@@ -1625,7 +1625,7 @@
       <c r="AW2" s="24"/>
       <c r="AX2" s="24"/>
       <c r="AY2" s="24"/>
-      <c r="AZ2" s="26" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>253</v>
       </c>
       <c r="BA2" s="24" t="s">
@@ -1642,7 +1642,7 @@
       <c r="BH2" s="24"/>
       <c r="BI2" s="24"/>
       <c r="BJ2" s="24"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BK2" s="25" t="s">
         <v>261</v>
       </c>
       <c r="BL2" s="24" t="s">
@@ -1657,7 +1657,7 @@
       <c r="BQ2" s="24"/>
       <c r="BR2" s="24"/>
       <c r="BS2" s="24"/>
-      <c r="BT2" s="26" t="s">
+      <c r="BT2" s="25" t="s">
         <v>265</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1704,7 +1704,7 @@
       <c r="P3" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="T3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="27" t="s">
         <v>227</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1732,7 +1732,7 @@
       <c r="Z3" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="AA3" s="26"/>
+      <c r="AA3" s="25"/>
       <c r="AB3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="AI3" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="AJ3" s="26"/>
+      <c r="AJ3" s="25"/>
       <c r="AK3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="AM3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="26"/>
+      <c r="AN3" s="25"/>
       <c r="AO3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="AY3" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="AZ3" s="26"/>
+      <c r="AZ3" s="25"/>
       <c r="BA3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="BJ3" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="BK3" s="26"/>
+      <c r="BK3" s="25"/>
       <c r="BL3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="BS3" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="BT3" s="26"/>
+      <c r="BT3" s="25"/>
     </row>
     <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -1872,7 +1872,7 @@
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>58</v>
       </c>
       <c r="P4" s="24"/>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="3" t="s">
         <v>288</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="T4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="25"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>64</v>
       </c>
       <c r="Z4" s="24"/>
-      <c r="AA4" s="26"/>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>67</v>
       </c>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="26"/>
+      <c r="AJ4" s="25"/>
       <c r="AK4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AM4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" s="26"/>
+      <c r="AN4" s="25"/>
       <c r="AO4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>66</v>
       </c>
       <c r="AY4" s="24"/>
-      <c r="AZ4" s="26"/>
+      <c r="AZ4" s="25"/>
       <c r="BA4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>66</v>
       </c>
       <c r="BJ4" s="24"/>
-      <c r="BK4" s="26"/>
+      <c r="BK4" s="25"/>
       <c r="BL4" s="1" t="s">
         <v>77</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>77</v>
       </c>
       <c r="BS4" s="24"/>
-      <c r="BT4" s="26"/>
+      <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -2044,7 +2044,7 @@
       <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>221</v>
       </c>
       <c r="P5" s="24"/>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="25"/>
       <c r="R5" s="3" t="s">
         <v>224</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="T5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="25"/>
+      <c r="U5" s="27"/>
       <c r="V5" s="1" t="s">
         <v>228</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>231</v>
       </c>
       <c r="Z5" s="24"/>
-      <c r="AA5" s="26"/>
+      <c r="AA5" s="25"/>
       <c r="AB5" s="1" t="s">
         <v>234</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>239</v>
       </c>
       <c r="AI5" s="24"/>
-      <c r="AJ5" s="26"/>
+      <c r="AJ5" s="25"/>
       <c r="AK5" s="1" t="s">
         <v>242</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="AM5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AN5" s="26"/>
+      <c r="AN5" s="25"/>
       <c r="AO5" s="1" t="s">
         <v>245</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>236</v>
       </c>
       <c r="AY5" s="24"/>
-      <c r="AZ5" s="26"/>
+      <c r="AZ5" s="25"/>
       <c r="BA5" s="1" t="s">
         <v>234</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>237</v>
       </c>
       <c r="BJ5" s="24"/>
-      <c r="BK5" s="26"/>
+      <c r="BK5" s="25"/>
       <c r="BL5" s="1" t="s">
         <v>262</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>262</v>
       </c>
       <c r="BS5" s="24"/>
-      <c r="BT5" s="26"/>
+      <c r="BT5" s="25"/>
     </row>
     <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2222,7 +2222,7 @@
       <c r="F6" s="1">
         <v>2020</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>2018</v>
       </c>
       <c r="P6" s="24"/>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="17">
         <v>2021</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="T6" s="3">
         <v>2018</v>
       </c>
-      <c r="U6" s="25"/>
+      <c r="U6" s="27"/>
       <c r="V6" s="1">
         <v>2020</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>2019</v>
       </c>
       <c r="Z6" s="24"/>
-      <c r="AA6" s="26"/>
+      <c r="AA6" s="25"/>
       <c r="AB6" s="1">
         <v>2010</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="AI6" s="24"/>
-      <c r="AJ6" s="26"/>
+      <c r="AJ6" s="25"/>
       <c r="AK6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="AM6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN6" s="26"/>
+      <c r="AN6" s="25"/>
       <c r="AO6" s="1">
         <v>2019</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>2019</v>
       </c>
       <c r="AY6" s="24"/>
-      <c r="AZ6" s="26"/>
+      <c r="AZ6" s="25"/>
       <c r="BA6" s="1">
         <v>2019</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>2019</v>
       </c>
       <c r="BJ6" s="24"/>
-      <c r="BK6" s="26"/>
+      <c r="BK6" s="25"/>
       <c r="BL6" s="1">
         <v>2020</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>2020</v>
       </c>
       <c r="BS6" s="24"/>
-      <c r="BT6" s="26"/>
+      <c r="BT6" s="25"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -24401,6 +24401,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="BL1:BT1"/>
+    <mergeCell ref="BT2:BT6"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BK2:BK6"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BA1:BK1"/>
+    <mergeCell ref="BS3:BS6"/>
+    <mergeCell ref="BN3:BN6"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BF3:BF6"/>
+    <mergeCell ref="BJ3:BJ6"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AO1:AZ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AN2:AN6"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="AZ2:AZ6"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AT3:AT6"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D2:G2"/>
@@ -24417,31 +24442,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AO1:AZ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AN2:AN6"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="AZ2:AZ6"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AT3:AT6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="BL1:BT1"/>
-    <mergeCell ref="BT2:BT6"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BK2:BK6"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BA1:BK1"/>
-    <mergeCell ref="BS3:BS6"/>
-    <mergeCell ref="BN3:BN6"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BF3:BF6"/>
-    <mergeCell ref="BJ3:BJ6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
+++ b/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F59103AE-7DF2-4A00-9BEE-144A41C5E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFA5E3A-544B-4E19-A978-0DFDB03975CE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="2415" windowWidth="15375" windowHeight="8325" xr2:uid="{0934BDD8-66C5-43F7-B135-570B233A627A}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="2475" windowWidth="15375" windowHeight="8325" xr2:uid="{0934BDD8-66C5-43F7-B135-570B233A627A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1031,10 +1031,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6818BF9-8113-472F-9E5C-C472725CBD0C}">
   <dimension ref="A1:BT107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,18 +1450,18 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
       <c r="AB1" s="16" t="s">
         <v>277</v>
       </c>
@@ -1544,12 +1544,12 @@
       <c r="Q2" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="16" t="s">
         <v>274</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="18" t="s">
         <v>227</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1879,7 +1879,7 @@
       <c r="T4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="17"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="T5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="17"/>
+      <c r="U5" s="18"/>
       <c r="V5" s="1" t="s">
         <v>228</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="T6" s="2">
         <v>2018</v>
       </c>
-      <c r="U6" s="17"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="1">
         <v>2020</v>
       </c>
@@ -24374,6 +24374,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="BL1:BT1"/>
+    <mergeCell ref="BT2:BT6"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="BK2:BK6"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BA1:BK1"/>
+    <mergeCell ref="BS3:BS6"/>
+    <mergeCell ref="BN3:BN6"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BF3:BF6"/>
+    <mergeCell ref="BJ3:BJ6"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AO1:AZ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AN2:AN6"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="AZ2:AZ6"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AT3:AT6"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D2:G2"/>
@@ -24390,31 +24415,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AO1:AZ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AN2:AN6"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="AZ2:AZ6"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AT3:AT6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="BL1:BT1"/>
-    <mergeCell ref="BT2:BT6"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="BK2:BK6"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BA1:BK1"/>
-    <mergeCell ref="BS3:BS6"/>
-    <mergeCell ref="BN3:BN6"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BF3:BF6"/>
-    <mergeCell ref="BJ3:BJ6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
+++ b/Arquivos ICE - 23/Ind_Originais_ICE_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba158c18d2df68b8/Área de Trabalho/ICE-23/Arquivos ICE - 23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F59103AE-7DF2-4A00-9BEE-144A41C5E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFA5E3A-544B-4E19-A978-0DFDB03975CE}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F59103AE-7DF2-4A00-9BEE-144A41C5E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A9AA9D0-D3AD-460B-B19D-13D2DF6BF6DC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="2475" windowWidth="15375" windowHeight="8325" xr2:uid="{0934BDD8-66C5-43F7-B135-570B233A627A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0934BDD8-66C5-43F7-B135-570B233A627A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
     <t xml:space="preserve">Google Maps </t>
   </si>
   <si>
-    <t>q</t>
+    <t>Crescimento Real Médio do PIB</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1031,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6818BF9-8113-472F-9E5C-C472725CBD0C}">
   <dimension ref="A1:BT107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,18 +1450,18 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
       <c r="AB1" s="16" t="s">
         <v>277</v>
       </c>
@@ -1544,12 +1544,12 @@
       <c r="Q2" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="16" t="s">
         <v>274</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>227</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1879,7 +1879,7 @@
       <c r="T4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="18"/>
+      <c r="U4" s="17"/>
       <c r="V4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="T5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="18"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="1" t="s">
         <v>228</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="T6" s="2">
         <v>2018</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="1">
         <v>2020</v>
       </c>
@@ -24374,6 +24374,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AA2:AA6"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AJ2:AJ6"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AO1:AZ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AN2:AN6"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="AZ2:AZ6"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AT3:AT6"/>
     <mergeCell ref="L3:L6"/>
     <mergeCell ref="P3:P6"/>
     <mergeCell ref="U3:U6"/>
@@ -24390,31 +24415,6 @@
     <mergeCell ref="BL2:BN2"/>
     <mergeCell ref="BF3:BF6"/>
     <mergeCell ref="BJ3:BJ6"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AO1:AZ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AN2:AN6"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="AZ2:AZ6"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AT3:AT6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AA2:AA6"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AI3:AI6"/>
-    <mergeCell ref="AJ2:AJ6"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
